--- a/steamcase/user/userSearchEntrycase.xlsx
+++ b/steamcase/user/userSearchEntrycase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29D57C5C-A943-4E45-A648-62BE03324778}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEE625F0-F5E8-4D17-B4BA-B1196014874B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,8 @@
 "phoneNo":"18916899938"
 "entryName" :"线上课堂"
 "position":"05"
-"pageType":1</t>
+"pageType":1
+"entryId":75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +459,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
